--- a/public/DataUpload/users-headers-3.xlsx
+++ b/public/DataUpload/users-headers-3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">first_name</t>
   </si>
@@ -34,18 +34,12 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">acronym</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marielle Predovic</t>
   </si>
   <si>
     <t xml:space="preserve">roy.krajcik@example.net</t>
   </si>
   <si>
-    <t xml:space="preserve">area_a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prof. Santiago Bartoletti</t>
   </si>
   <si>
@@ -55,10 +49,7 @@
     <t xml:space="preserve">Jannie Crooks</t>
   </si>
   <si>
-    <t xml:space="preserve">bartoletti.ana@example.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_b</t>
+    <t xml:space="preserve">bartoletti.james@example.org</t>
   </si>
   <si>
     <t xml:space="preserve">Filiberto Christiansen</t>
@@ -70,9 +61,6 @@
     <t xml:space="preserve">pleannon@example.com</t>
   </si>
   <si>
-    <t xml:space="preserve">area_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. Wilford Rempel</t>
   </si>
   <si>
@@ -80,6 +68,15 @@
   </si>
   <si>
     <t xml:space="preserve">amedhurst@example.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agatha@tmp.com</t>
   </si>
 </sst>
 </file>
@@ -89,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,6 +111,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -161,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,10 +175,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -206,6 +214,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -221,96 +230,95 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="agatha@tmp.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
